--- a/data/pca/factorExposure/factorExposure_2011-08-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.01533693162480832</v>
+        <v>0.01502049216429401</v>
       </c>
       <c r="C2">
-        <v>0.007905613231867047</v>
+        <v>-0.005676388188144953</v>
       </c>
       <c r="D2">
-        <v>-0.03924161045313131</v>
+        <v>-0.02713202231723274</v>
       </c>
       <c r="E2">
-        <v>0.06488166416609632</v>
+        <v>-0.03533194238332964</v>
       </c>
       <c r="F2">
-        <v>-0.003423675201135879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02025249794036515</v>
+      </c>
+      <c r="G2">
+        <v>0.01463347017673821</v>
+      </c>
+      <c r="H2">
+        <v>0.01184551535747016</v>
+      </c>
+      <c r="I2">
+        <v>0.01302562025273689</v>
+      </c>
+      <c r="J2">
+        <v>-0.03252931160853598</v>
+      </c>
+      <c r="K2">
+        <v>0.07602940417200078</v>
+      </c>
+      <c r="L2">
+        <v>0.009162698501951344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.07061384463734989</v>
+        <v>0.09185238160082493</v>
       </c>
       <c r="C4">
-        <v>0.03794024708594273</v>
+        <v>-0.05457084086786106</v>
       </c>
       <c r="D4">
-        <v>-0.05905007670788981</v>
+        <v>-0.02712078115795239</v>
       </c>
       <c r="E4">
-        <v>0.020883799751916</v>
+        <v>-0.03340590589735346</v>
       </c>
       <c r="F4">
-        <v>-0.03248982549685391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.08518114208121919</v>
+      </c>
+      <c r="G4">
+        <v>0.05126981059451636</v>
+      </c>
+      <c r="H4">
+        <v>0.005422302137013303</v>
+      </c>
+      <c r="I4">
+        <v>-0.07705125722904059</v>
+      </c>
+      <c r="J4">
+        <v>0.0247369433144998</v>
+      </c>
+      <c r="K4">
+        <v>-0.04461578806414754</v>
+      </c>
+      <c r="L4">
+        <v>0.02259699147871262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1193667413811636</v>
+        <v>0.129458644369882</v>
       </c>
       <c r="C6">
-        <v>0.00157250980111693</v>
+        <v>-0.02232323828953303</v>
       </c>
       <c r="D6">
-        <v>-0.0577102873246009</v>
+        <v>-0.06155917985154206</v>
       </c>
       <c r="E6">
-        <v>0.07506463354827533</v>
+        <v>-0.01562596304578537</v>
       </c>
       <c r="F6">
-        <v>-0.05430711536189168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.05607962482958909</v>
+      </c>
+      <c r="G6">
+        <v>0.05399540480456739</v>
+      </c>
+      <c r="H6">
+        <v>-0.1684401080724738</v>
+      </c>
+      <c r="I6">
+        <v>-0.04514509964545993</v>
+      </c>
+      <c r="J6">
+        <v>0.453911711304105</v>
+      </c>
+      <c r="K6">
+        <v>0.003864430009469607</v>
+      </c>
+      <c r="L6">
+        <v>-0.05755768520413104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.06689251804999576</v>
+        <v>0.0684313664764753</v>
       </c>
       <c r="C7">
-        <v>0.01252395009351078</v>
+        <v>-0.05202087036363958</v>
       </c>
       <c r="D7">
-        <v>-0.05339310957510902</v>
+        <v>-0.04111738300886753</v>
       </c>
       <c r="E7">
-        <v>0.05702752639372843</v>
+        <v>-0.03700925822347743</v>
       </c>
       <c r="F7">
-        <v>-0.01635307469262395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0421223483873892</v>
+      </c>
+      <c r="G7">
+        <v>-0.0007184387799867995</v>
+      </c>
+      <c r="H7">
+        <v>0.001283766303537044</v>
+      </c>
+      <c r="I7">
+        <v>-0.04282676649963762</v>
+      </c>
+      <c r="J7">
+        <v>-0.06366590230390004</v>
+      </c>
+      <c r="K7">
+        <v>-0.0495103795158475</v>
+      </c>
+      <c r="L7">
+        <v>0.03275769747203935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.03265939019438629</v>
+        <v>0.03734748084361093</v>
       </c>
       <c r="C8">
-        <v>0.03714576019839757</v>
+        <v>-0.01654002986008439</v>
       </c>
       <c r="D8">
-        <v>0.002108238900351087</v>
+        <v>0.01352677453840818</v>
       </c>
       <c r="E8">
-        <v>0.05154826355881034</v>
+        <v>-0.06393246786803632</v>
       </c>
       <c r="F8">
-        <v>-0.04809441179290688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.03554401315591932</v>
+      </c>
+      <c r="G8">
+        <v>0.06157504551336777</v>
+      </c>
+      <c r="H8">
+        <v>-0.0203663711869532</v>
+      </c>
+      <c r="I8">
+        <v>-0.09296632805908149</v>
+      </c>
+      <c r="J8">
+        <v>0.008759272965553011</v>
+      </c>
+      <c r="K8">
+        <v>-0.05988233469829926</v>
+      </c>
+      <c r="L8">
+        <v>-0.005432585161308217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.07422580296416653</v>
+        <v>0.084122451509807</v>
       </c>
       <c r="C9">
-        <v>0.05076955558520932</v>
+        <v>-0.05473916794001422</v>
       </c>
       <c r="D9">
-        <v>-0.0609212805611503</v>
+        <v>-0.02649618415436307</v>
       </c>
       <c r="E9">
-        <v>0.02662518024878031</v>
+        <v>-0.02498160185230223</v>
       </c>
       <c r="F9">
-        <v>-0.02363694559202382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.0675913522751883</v>
+      </c>
+      <c r="G9">
+        <v>0.05783069017709306</v>
+      </c>
+      <c r="H9">
+        <v>0.003434115341476999</v>
+      </c>
+      <c r="I9">
+        <v>-0.08523749639877565</v>
+      </c>
+      <c r="J9">
+        <v>0.01488254166075191</v>
+      </c>
+      <c r="K9">
+        <v>-0.02934797123752564</v>
+      </c>
+      <c r="L9">
+        <v>-0.004798915099073914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.02969701734651962</v>
+        <v>0.08671399525341199</v>
       </c>
       <c r="C10">
-        <v>-0.1442761190327758</v>
+        <v>0.181951255319082</v>
       </c>
       <c r="D10">
-        <v>0.0351256833305091</v>
+        <v>-0.0008683542510051248</v>
       </c>
       <c r="E10">
-        <v>0.07055028630358437</v>
+        <v>-0.05019976411565812</v>
       </c>
       <c r="F10">
-        <v>-0.04452576633709732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0331830930279455</v>
+      </c>
+      <c r="G10">
+        <v>-0.03604844433358455</v>
+      </c>
+      <c r="H10">
+        <v>-0.009132909110853833</v>
+      </c>
+      <c r="I10">
+        <v>0.02643185702182775</v>
+      </c>
+      <c r="J10">
+        <v>-0.02869679252816067</v>
+      </c>
+      <c r="K10">
+        <v>0.02458247794571063</v>
+      </c>
+      <c r="L10">
+        <v>0.01974828412582069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.06888262219923673</v>
+        <v>0.07017743324490681</v>
       </c>
       <c r="C11">
-        <v>0.05420452737288485</v>
+        <v>-0.05967933992082253</v>
       </c>
       <c r="D11">
-        <v>-0.05685144651724741</v>
+        <v>-0.0308703271836814</v>
       </c>
       <c r="E11">
-        <v>0.03701207634168618</v>
+        <v>-0.01749655421483877</v>
       </c>
       <c r="F11">
-        <v>0.00689488020261776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03233423488953976</v>
+      </c>
+      <c r="G11">
+        <v>0.08011733498125397</v>
+      </c>
+      <c r="H11">
+        <v>0.01029692016328821</v>
+      </c>
+      <c r="I11">
+        <v>-0.05997280980781074</v>
+      </c>
+      <c r="J11">
+        <v>-0.06789126823856413</v>
+      </c>
+      <c r="K11">
+        <v>0.03079153904111697</v>
+      </c>
+      <c r="L11">
+        <v>-0.02139748702903297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.0657973087911682</v>
+        <v>0.069997058191273</v>
       </c>
       <c r="C12">
-        <v>0.03066023260691849</v>
+        <v>-0.04904849021882794</v>
       </c>
       <c r="D12">
-        <v>-0.05017978881436818</v>
+        <v>-0.01566019984703251</v>
       </c>
       <c r="E12">
-        <v>0.02275540500143215</v>
+        <v>-0.0134697745926307</v>
       </c>
       <c r="F12">
-        <v>-0.01654734362146681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.04233813710524569</v>
+      </c>
+      <c r="G12">
+        <v>0.07254231758313241</v>
+      </c>
+      <c r="H12">
+        <v>0.002252740946125999</v>
+      </c>
+      <c r="I12">
+        <v>-0.09137143284413612</v>
+      </c>
+      <c r="J12">
+        <v>-0.05841991640382461</v>
+      </c>
+      <c r="K12">
+        <v>0.0168690464009757</v>
+      </c>
+      <c r="L12">
+        <v>0.01277353450105749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.07309360070974123</v>
+        <v>0.06211823272794848</v>
       </c>
       <c r="C13">
-        <v>0.02546149794735008</v>
+        <v>-0.03937114148720488</v>
       </c>
       <c r="D13">
-        <v>-0.01985767073367918</v>
+        <v>0.0168067467640718</v>
       </c>
       <c r="E13">
-        <v>0.025682854378225</v>
+        <v>-0.02515680456773665</v>
       </c>
       <c r="F13">
-        <v>-0.02122541410614442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01773769356740025</v>
+      </c>
+      <c r="G13">
+        <v>0.02766762435991516</v>
+      </c>
+      <c r="H13">
+        <v>0.0005491735710192977</v>
+      </c>
+      <c r="I13">
+        <v>-0.07003263109438822</v>
+      </c>
+      <c r="J13">
+        <v>-0.01450069466763144</v>
+      </c>
+      <c r="K13">
+        <v>-0.08380629148510715</v>
+      </c>
+      <c r="L13">
+        <v>0.03238038611251895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.0369260829348058</v>
+        <v>0.04417180440221309</v>
       </c>
       <c r="C14">
-        <v>-0.002113104402516663</v>
+        <v>-0.0151405882820635</v>
       </c>
       <c r="D14">
-        <v>-0.04038943943883662</v>
+        <v>-0.02592773600851807</v>
       </c>
       <c r="E14">
-        <v>0.008773816568141959</v>
+        <v>-0.003528838393497922</v>
       </c>
       <c r="F14">
-        <v>-0.00551251104548038</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.04275568035227544</v>
+      </c>
+      <c r="G14">
+        <v>0.03923280014644479</v>
+      </c>
+      <c r="H14">
+        <v>0.04083252968018141</v>
+      </c>
+      <c r="I14">
+        <v>-0.06012771114034758</v>
+      </c>
+      <c r="J14">
+        <v>0.02094499919231984</v>
+      </c>
+      <c r="K14">
+        <v>-0.04944485126416562</v>
+      </c>
+      <c r="L14">
+        <v>-0.01310787302850305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.05184127028065056</v>
+        <v>0.04049759032832093</v>
       </c>
       <c r="C15">
-        <v>0.01026879444261304</v>
+        <v>-0.01644828638561992</v>
       </c>
       <c r="D15">
-        <v>-0.006587201418994561</v>
+        <v>0.01904926587305076</v>
       </c>
       <c r="E15">
-        <v>0.00615934254929626</v>
+        <v>0.002112810616070403</v>
       </c>
       <c r="F15">
-        <v>-0.03182083806524899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.02340948671090974</v>
+      </c>
+      <c r="G15">
+        <v>0.01392642962840884</v>
+      </c>
+      <c r="H15">
+        <v>0.006327611823154885</v>
+      </c>
+      <c r="I15">
+        <v>-0.02885047827667776</v>
+      </c>
+      <c r="J15">
+        <v>0.03484360128118101</v>
+      </c>
+      <c r="K15">
+        <v>-0.06840123754235874</v>
+      </c>
+      <c r="L15">
+        <v>0.002152073829112657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.05551417542714762</v>
+        <v>0.07031911341679101</v>
       </c>
       <c r="C16">
-        <v>0.05034222429915723</v>
+        <v>-0.06092420089019276</v>
       </c>
       <c r="D16">
-        <v>-0.04653179620756061</v>
+        <v>-0.02250109725639301</v>
       </c>
       <c r="E16">
-        <v>0.02025859852070465</v>
+        <v>-0.01392282649735382</v>
       </c>
       <c r="F16">
-        <v>-0.02952890460977778</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.04718431718369192</v>
+      </c>
+      <c r="G16">
+        <v>0.06129882294794141</v>
+      </c>
+      <c r="H16">
+        <v>0.01643438573719488</v>
+      </c>
+      <c r="I16">
+        <v>-0.06434200203899851</v>
+      </c>
+      <c r="J16">
+        <v>-0.05206581411202985</v>
+      </c>
+      <c r="K16">
+        <v>0.01213918991803333</v>
+      </c>
+      <c r="L16">
+        <v>-0.02431506894222414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.06024578470957999</v>
+        <v>0.05462245542322986</v>
       </c>
       <c r="C20">
-        <v>0.04438387532331207</v>
+        <v>-0.04033580902780724</v>
       </c>
       <c r="D20">
-        <v>-0.02097660379721069</v>
+        <v>-0.01116235546404467</v>
       </c>
       <c r="E20">
-        <v>0.03151091631675822</v>
+        <v>-0.02363538193964387</v>
       </c>
       <c r="F20">
-        <v>-0.01781345245566943</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01028245081993501</v>
+      </c>
+      <c r="G20">
+        <v>0.04993863184735776</v>
+      </c>
+      <c r="H20">
+        <v>0.02151201165640684</v>
+      </c>
+      <c r="I20">
+        <v>-0.1157920733732842</v>
+      </c>
+      <c r="J20">
+        <v>-0.02166967382069984</v>
+      </c>
+      <c r="K20">
+        <v>-0.01953269646149684</v>
+      </c>
+      <c r="L20">
+        <v>0.0377729507914239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.03786598006145494</v>
+        <v>0.02715019745587285</v>
       </c>
       <c r="C21">
-        <v>0.03154040411315297</v>
+        <v>-0.02135626700750129</v>
       </c>
       <c r="D21">
-        <v>0.01873327673739965</v>
+        <v>0.03743664531002263</v>
       </c>
       <c r="E21">
-        <v>0.01016862188325177</v>
+        <v>-0.01719753705896655</v>
       </c>
       <c r="F21">
-        <v>-0.0524979756023799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.0145672860711156</v>
+      </c>
+      <c r="G21">
+        <v>0.004642587526646701</v>
+      </c>
+      <c r="H21">
+        <v>-0.06816659924378191</v>
+      </c>
+      <c r="I21">
+        <v>-0.03751692323332224</v>
+      </c>
+      <c r="J21">
+        <v>0.05524809705113426</v>
+      </c>
+      <c r="K21">
+        <v>-0.05255633242480633</v>
+      </c>
+      <c r="L21">
+        <v>0.001896583759581993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.1091277020956693</v>
+        <v>0.08397914372761471</v>
       </c>
       <c r="C22">
-        <v>0.1248685717557554</v>
+        <v>-0.0919174731516304</v>
       </c>
       <c r="D22">
-        <v>0.0369162150655499</v>
+        <v>0.4317602780240906</v>
       </c>
       <c r="E22">
-        <v>-0.02610258362270441</v>
+        <v>-0.1359919028217849</v>
       </c>
       <c r="F22">
-        <v>-0.4444069242299249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.3678152667609765</v>
+      </c>
+      <c r="G22">
+        <v>-0.260852371598847</v>
+      </c>
+      <c r="H22">
+        <v>0.004313280882554346</v>
+      </c>
+      <c r="I22">
+        <v>0.2083917501746896</v>
+      </c>
+      <c r="J22">
+        <v>0.03091922520913929</v>
+      </c>
+      <c r="K22">
+        <v>0.05049348386788106</v>
+      </c>
+      <c r="L22">
+        <v>0.05835036402733551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.1101889100799014</v>
+        <v>0.08492500016272382</v>
       </c>
       <c r="C23">
-        <v>0.1239808035075862</v>
+        <v>-0.09235771942324426</v>
       </c>
       <c r="D23">
-        <v>0.03498214389527682</v>
+        <v>0.4323475384482313</v>
       </c>
       <c r="E23">
-        <v>-0.02509846874085933</v>
+        <v>-0.1372088171651257</v>
       </c>
       <c r="F23">
-        <v>-0.4459946936142878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3722904147602671</v>
+      </c>
+      <c r="G23">
+        <v>-0.2554911208762793</v>
+      </c>
+      <c r="H23">
+        <v>0.005332228335969077</v>
+      </c>
+      <c r="I23">
+        <v>0.2092023769599277</v>
+      </c>
+      <c r="J23">
+        <v>0.03688989197672159</v>
+      </c>
+      <c r="K23">
+        <v>0.05171510312028996</v>
+      </c>
+      <c r="L23">
+        <v>0.05558384386143683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.07720461068620019</v>
+        <v>0.07855030261438641</v>
       </c>
       <c r="C24">
-        <v>0.04789904061127399</v>
+        <v>-0.06102522930213287</v>
       </c>
       <c r="D24">
-        <v>-0.04762286822316316</v>
+        <v>-0.01523058533967669</v>
       </c>
       <c r="E24">
-        <v>0.03948840332706768</v>
+        <v>-0.02339802219437056</v>
       </c>
       <c r="F24">
-        <v>-0.02829096735797111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.04820611842663447</v>
+      </c>
+      <c r="G24">
+        <v>0.07948140557749116</v>
+      </c>
+      <c r="H24">
+        <v>-0.0008314520787549471</v>
+      </c>
+      <c r="I24">
+        <v>-0.0710658508679967</v>
+      </c>
+      <c r="J24">
+        <v>-0.0450355463296067</v>
+      </c>
+      <c r="K24">
+        <v>0.02273757609938651</v>
+      </c>
+      <c r="L24">
+        <v>-0.005457845116956879</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07153994649850999</v>
+        <v>0.07571638773522499</v>
       </c>
       <c r="C25">
-        <v>0.02844737818557588</v>
+        <v>-0.04050036255342122</v>
       </c>
       <c r="D25">
-        <v>-0.05214126923216843</v>
+        <v>-0.02476535772246346</v>
       </c>
       <c r="E25">
-        <v>0.04814003513735132</v>
+        <v>-0.02233737202771846</v>
       </c>
       <c r="F25">
-        <v>-0.04636381373623152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.05577831143873141</v>
+      </c>
+      <c r="G25">
+        <v>0.07557859317080994</v>
+      </c>
+      <c r="H25">
+        <v>0.0198606076514558</v>
+      </c>
+      <c r="I25">
+        <v>-0.08868262417182772</v>
+      </c>
+      <c r="J25">
+        <v>-0.04933721357831598</v>
+      </c>
+      <c r="K25">
+        <v>0.038410172673027</v>
+      </c>
+      <c r="L25">
+        <v>-0.009942954490054612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.05366098619420417</v>
+        <v>0.04569717740374313</v>
       </c>
       <c r="C26">
-        <v>0.0244483272817028</v>
+        <v>-0.02548667034902592</v>
       </c>
       <c r="D26">
-        <v>-0.01014972256681011</v>
+        <v>0.01972981574852796</v>
       </c>
       <c r="E26">
-        <v>0.0382609072418201</v>
+        <v>-0.01116431735223496</v>
       </c>
       <c r="F26">
-        <v>0.01261068539130124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01378432200259257</v>
+      </c>
+      <c r="G26">
+        <v>0.02317011520547142</v>
+      </c>
+      <c r="H26">
+        <v>0.008011845658060927</v>
+      </c>
+      <c r="I26">
+        <v>-0.04400203803210966</v>
+      </c>
+      <c r="J26">
+        <v>0.01293023075294448</v>
+      </c>
+      <c r="K26">
+        <v>-0.1266437664138396</v>
+      </c>
+      <c r="L26">
+        <v>-0.01486003681382009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.07072129691486982</v>
+        <v>0.1114440230809837</v>
       </c>
       <c r="C28">
-        <v>-0.2887479654809432</v>
+        <v>0.2957060249386834</v>
       </c>
       <c r="D28">
-        <v>0.06627539034489992</v>
+        <v>0.02476588270811904</v>
       </c>
       <c r="E28">
-        <v>0.08050625137799744</v>
+        <v>-0.03693601491080696</v>
       </c>
       <c r="F28">
-        <v>0.002504367319920459</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.00208529732921449</v>
+      </c>
+      <c r="G28">
+        <v>-0.0002549381871853196</v>
+      </c>
+      <c r="H28">
+        <v>-0.02879549683408108</v>
+      </c>
+      <c r="I28">
+        <v>0.02784804869441718</v>
+      </c>
+      <c r="J28">
+        <v>0.006854637764482556</v>
+      </c>
+      <c r="K28">
+        <v>-0.07323355890572236</v>
+      </c>
+      <c r="L28">
+        <v>-0.005158339398157974</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05137673061158163</v>
+        <v>0.04898519302991503</v>
       </c>
       <c r="C29">
-        <v>-0.002012547195648841</v>
+        <v>-0.0164278595029172</v>
       </c>
       <c r="D29">
-        <v>-0.02402264434754826</v>
+        <v>-0.009162643821054878</v>
       </c>
       <c r="E29">
-        <v>0.01435853727341951</v>
+        <v>-0.01783663110227727</v>
       </c>
       <c r="F29">
-        <v>-0.03214793020840212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.0344695212631559</v>
+      </c>
+      <c r="G29">
+        <v>0.04031549237997986</v>
+      </c>
+      <c r="H29">
+        <v>0.04433823223341252</v>
+      </c>
+      <c r="I29">
+        <v>-0.0480038486362116</v>
+      </c>
+      <c r="J29">
+        <v>0.01168874543669249</v>
+      </c>
+      <c r="K29">
+        <v>-0.04137079991681003</v>
+      </c>
+      <c r="L29">
+        <v>-0.005505295947876693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.1471111036734235</v>
+        <v>0.1209963702210091</v>
       </c>
       <c r="C30">
-        <v>0.05473770600115815</v>
+        <v>-0.06969056798509504</v>
       </c>
       <c r="D30">
-        <v>-0.09606811798519903</v>
+        <v>0.00532926628997989</v>
       </c>
       <c r="E30">
-        <v>0.07890606611742416</v>
+        <v>-0.06040081480496542</v>
       </c>
       <c r="F30">
-        <v>-0.07385728501865733</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1216862920271214</v>
+      </c>
+      <c r="G30">
+        <v>0.09344843240613628</v>
+      </c>
+      <c r="H30">
+        <v>-0.05893329361135504</v>
+      </c>
+      <c r="I30">
+        <v>-0.2191254682151443</v>
+      </c>
+      <c r="J30">
+        <v>-0.05789164829433427</v>
+      </c>
+      <c r="K30">
+        <v>-0.1224440515884003</v>
+      </c>
+      <c r="L30">
+        <v>0.4259035438199191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.05590646631552983</v>
+        <v>0.04327379847624713</v>
       </c>
       <c r="C31">
-        <v>0.008698331881215637</v>
+        <v>-0.04067369269986631</v>
       </c>
       <c r="D31">
-        <v>-0.02906419255773268</v>
+        <v>0.003133061791105039</v>
       </c>
       <c r="E31">
-        <v>0.000747324213960401</v>
+        <v>0.007134123969817536</v>
       </c>
       <c r="F31">
-        <v>-0.006770498736470579</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02015837947024589</v>
+      </c>
+      <c r="G31">
+        <v>0.008962192735415068</v>
+      </c>
+      <c r="H31">
+        <v>0.05276141834970132</v>
+      </c>
+      <c r="I31">
+        <v>-0.04757210985943739</v>
+      </c>
+      <c r="J31">
+        <v>0.0157064423914477</v>
+      </c>
+      <c r="K31">
+        <v>-0.01881780331564224</v>
+      </c>
+      <c r="L31">
+        <v>0.009443314370686618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.04781084703512509</v>
+        <v>0.0506067512433207</v>
       </c>
       <c r="C32">
-        <v>0.01553708778684504</v>
+        <v>-0.003785662965994272</v>
       </c>
       <c r="D32">
-        <v>-0.008014099856429134</v>
+        <v>0.03842862171001764</v>
       </c>
       <c r="E32">
-        <v>-0.00858387914505785</v>
+        <v>-0.00883306951709144</v>
       </c>
       <c r="F32">
-        <v>-0.07451277853467872</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.05639592908764041</v>
+      </c>
+      <c r="G32">
+        <v>0.005930123985513986</v>
+      </c>
+      <c r="H32">
+        <v>0.003933655662709858</v>
+      </c>
+      <c r="I32">
+        <v>-0.003500238544524244</v>
+      </c>
+      <c r="J32">
+        <v>-0.001191768700126808</v>
+      </c>
+      <c r="K32">
+        <v>-0.1168172345703526</v>
+      </c>
+      <c r="L32">
+        <v>0.05980766137762954</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1031115786184487</v>
+        <v>0.1036289233661059</v>
       </c>
       <c r="C33">
-        <v>0.02962925299819235</v>
+        <v>-0.05590850441873771</v>
       </c>
       <c r="D33">
-        <v>-0.05980196843162133</v>
+        <v>-0.007493933237743096</v>
       </c>
       <c r="E33">
-        <v>0.01644679085459763</v>
+        <v>0.01900498946253969</v>
       </c>
       <c r="F33">
-        <v>0.001846299489119906</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.04445820388295333</v>
+      </c>
+      <c r="G33">
+        <v>0.04449949889178043</v>
+      </c>
+      <c r="H33">
+        <v>0.0383681855857026</v>
+      </c>
+      <c r="I33">
+        <v>-0.06889062978982927</v>
+      </c>
+      <c r="J33">
+        <v>0.01263797194594301</v>
+      </c>
+      <c r="K33">
+        <v>-0.02851673113954519</v>
+      </c>
+      <c r="L33">
+        <v>-0.005161701801437321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.05935580148363089</v>
+        <v>0.06501679185160045</v>
       </c>
       <c r="C34">
-        <v>0.05095503002474869</v>
+        <v>-0.05061721352601156</v>
       </c>
       <c r="D34">
-        <v>-0.03798565416318524</v>
+        <v>-0.01949983699108841</v>
       </c>
       <c r="E34">
-        <v>0.0245448883991102</v>
+        <v>-0.01226485936865994</v>
       </c>
       <c r="F34">
-        <v>-0.041347089259187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03483584913674642</v>
+      </c>
+      <c r="G34">
+        <v>0.06782550158974866</v>
+      </c>
+      <c r="H34">
+        <v>0.02229260772213547</v>
+      </c>
+      <c r="I34">
+        <v>-0.06869222661745295</v>
+      </c>
+      <c r="J34">
+        <v>-0.03530623512249261</v>
+      </c>
+      <c r="K34">
+        <v>0.03424913939490599</v>
+      </c>
+      <c r="L34">
+        <v>-0.03289290714652712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.04218445612379371</v>
+        <v>0.03436352420176845</v>
       </c>
       <c r="C35">
-        <v>0.01212526067475041</v>
+        <v>-0.02214386579539789</v>
       </c>
       <c r="D35">
-        <v>-0.02695467468797573</v>
+        <v>-0.006105219626273938</v>
       </c>
       <c r="E35">
-        <v>0.003611266386435101</v>
+        <v>0.006362957055377546</v>
       </c>
       <c r="F35">
-        <v>-0.01726088323729443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.02225407633017784</v>
+      </c>
+      <c r="G35">
+        <v>-0.00246802132839736</v>
+      </c>
+      <c r="H35">
+        <v>0.0216092997575207</v>
+      </c>
+      <c r="I35">
+        <v>-0.06914954422679262</v>
+      </c>
+      <c r="J35">
+        <v>-0.02342914000418875</v>
+      </c>
+      <c r="K35">
+        <v>-0.01366251973037196</v>
+      </c>
+      <c r="L35">
+        <v>0.02443644742732762</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.03686179223074272</v>
+        <v>0.03288322503501463</v>
       </c>
       <c r="C36">
-        <v>0.0146813797562383</v>
+        <v>-0.01719049415110594</v>
       </c>
       <c r="D36">
-        <v>-0.01711318895115333</v>
+        <v>0.007380043071460837</v>
       </c>
       <c r="E36">
-        <v>0.03242486379372896</v>
+        <v>-0.02069551379563793</v>
       </c>
       <c r="F36">
-        <v>-0.02812690996518467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.03058630335958127</v>
+      </c>
+      <c r="G36">
+        <v>0.03501795915989894</v>
+      </c>
+      <c r="H36">
+        <v>0.0083424900760227</v>
+      </c>
+      <c r="I36">
+        <v>-0.06940221569834122</v>
+      </c>
+      <c r="J36">
+        <v>0.005203549426854227</v>
+      </c>
+      <c r="K36">
+        <v>-0.03158706272783904</v>
+      </c>
+      <c r="L36">
+        <v>0.002247265451857435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.06485014021200478</v>
+        <v>0.04828412904313323</v>
       </c>
       <c r="C38">
-        <v>0.02129622704530268</v>
+        <v>-0.04508676800855952</v>
       </c>
       <c r="D38">
-        <v>0.01213907316745569</v>
+        <v>0.02793703031743804</v>
       </c>
       <c r="E38">
-        <v>-0.01466624128193096</v>
+        <v>-0.017596966887008</v>
       </c>
       <c r="F38">
-        <v>-0.06257627353560483</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01004680000819613</v>
+      </c>
+      <c r="G38">
+        <v>-0.01438097890607317</v>
+      </c>
+      <c r="H38">
+        <v>0.0192241300799777</v>
+      </c>
+      <c r="I38">
+        <v>0.1222518523750445</v>
+      </c>
+      <c r="J38">
+        <v>-0.03131073573749508</v>
+      </c>
+      <c r="K38">
+        <v>-0.09916300893527186</v>
+      </c>
+      <c r="L38">
+        <v>0.02283046057525152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.0933687516224644</v>
+        <v>0.09538508301090476</v>
       </c>
       <c r="C39">
-        <v>0.04785426807685938</v>
+        <v>-0.05960684229479667</v>
       </c>
       <c r="D39">
-        <v>-0.06613469510527248</v>
+        <v>-0.01848311885976679</v>
       </c>
       <c r="E39">
-        <v>0.01507606692331035</v>
+        <v>-0.01461431326773406</v>
       </c>
       <c r="F39">
-        <v>-0.02484825831194026</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05516736682967871</v>
+      </c>
+      <c r="G39">
+        <v>0.06772007780068375</v>
+      </c>
+      <c r="H39">
+        <v>0.005187517514240407</v>
+      </c>
+      <c r="I39">
+        <v>-0.09477157442107234</v>
+      </c>
+      <c r="J39">
+        <v>-0.1507475115853031</v>
+      </c>
+      <c r="K39">
+        <v>0.01343085039776682</v>
+      </c>
+      <c r="L39">
+        <v>0.07573909142173205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.08490518973154108</v>
+        <v>0.04687763044538164</v>
       </c>
       <c r="C40">
-        <v>0.02225215740566631</v>
+        <v>-0.05552779191242321</v>
       </c>
       <c r="D40">
-        <v>-0.03975872944768723</v>
+        <v>0.05987813518712629</v>
       </c>
       <c r="E40">
-        <v>0.031969636642961</v>
+        <v>-0.005183827242569362</v>
       </c>
       <c r="F40">
-        <v>-0.1391496655306938</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.04342905786685985</v>
+      </c>
+      <c r="G40">
+        <v>0.09676657572353692</v>
+      </c>
+      <c r="H40">
+        <v>-0.09012188254549419</v>
+      </c>
+      <c r="I40">
+        <v>-0.08635952395491375</v>
+      </c>
+      <c r="J40">
+        <v>-0.1930757723394408</v>
+      </c>
+      <c r="K40">
+        <v>-0.02955831259374484</v>
+      </c>
+      <c r="L40">
+        <v>0.08880103240709206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.06382185164374853</v>
+        <v>0.04649459665519678</v>
       </c>
       <c r="C41">
-        <v>0.03975071942835732</v>
+        <v>-0.03666395336952284</v>
       </c>
       <c r="D41">
-        <v>-0.0316559305492248</v>
+        <v>-0.01416896330745556</v>
       </c>
       <c r="E41">
-        <v>-0.0024021692103674</v>
+        <v>0.005213678235174312</v>
       </c>
       <c r="F41">
-        <v>-0.003750019933702234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01576380369565126</v>
+      </c>
+      <c r="G41">
+        <v>0.03113088631091796</v>
+      </c>
+      <c r="H41">
+        <v>0.0341178361815644</v>
+      </c>
+      <c r="I41">
+        <v>-0.009139908450132683</v>
+      </c>
+      <c r="J41">
+        <v>-0.02645474469211466</v>
+      </c>
+      <c r="K41">
+        <v>-0.04062959259364488</v>
+      </c>
+      <c r="L41">
+        <v>0.01926649282899843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.06403877668655296</v>
+        <v>0.05900553231833044</v>
       </c>
       <c r="C43">
-        <v>0.02270328940911555</v>
+        <v>-0.04392765391291661</v>
       </c>
       <c r="D43">
-        <v>-0.02507046474807187</v>
+        <v>-0.003988729937612766</v>
       </c>
       <c r="E43">
-        <v>0.01991217159340574</v>
+        <v>-0.01928208968270346</v>
       </c>
       <c r="F43">
-        <v>-0.002274857809580504</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01457453398352858</v>
+      </c>
+      <c r="G43">
+        <v>0.02039960563727271</v>
+      </c>
+      <c r="H43">
+        <v>0.0541622229510066</v>
+      </c>
+      <c r="I43">
+        <v>-0.01479052878870914</v>
+      </c>
+      <c r="J43">
+        <v>-0.01431744410432392</v>
+      </c>
+      <c r="K43">
+        <v>-0.02049852634915809</v>
+      </c>
+      <c r="L43">
+        <v>-0.008243944990013628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.07997841591715509</v>
+        <v>0.08717927768852371</v>
       </c>
       <c r="C44">
-        <v>0.03588824091805252</v>
+        <v>-0.05134072687573978</v>
       </c>
       <c r="D44">
-        <v>0.01020700720477799</v>
+        <v>0.02486005936084818</v>
       </c>
       <c r="E44">
-        <v>0.08856709464189061</v>
+        <v>-0.1061060728971565</v>
       </c>
       <c r="F44">
-        <v>-0.1207620688025875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.0694571656956033</v>
+      </c>
+      <c r="G44">
+        <v>0.09004674287767829</v>
+      </c>
+      <c r="H44">
+        <v>0.0228192093722303</v>
+      </c>
+      <c r="I44">
+        <v>-0.1279598336946282</v>
+      </c>
+      <c r="J44">
+        <v>-0.07619520996054499</v>
+      </c>
+      <c r="K44">
+        <v>-0.00517973873470485</v>
+      </c>
+      <c r="L44">
+        <v>-0.01247506560969427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.02915761813548581</v>
+        <v>0.04352874291698618</v>
       </c>
       <c r="C46">
-        <v>0.02783584969948842</v>
+        <v>-0.03431649021307402</v>
       </c>
       <c r="D46">
-        <v>-0.01997333473504815</v>
+        <v>-0.006913158125568703</v>
       </c>
       <c r="E46">
-        <v>0.01707788577925958</v>
+        <v>-0.02433919064097591</v>
       </c>
       <c r="F46">
-        <v>-0.03604821231378064</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04394418506433881</v>
+      </c>
+      <c r="G46">
+        <v>0.01478526912675344</v>
+      </c>
+      <c r="H46">
+        <v>0.01741899542753907</v>
+      </c>
+      <c r="I46">
+        <v>-0.04289022810165766</v>
+      </c>
+      <c r="J46">
+        <v>0.01900847663860938</v>
+      </c>
+      <c r="K46">
+        <v>-0.06562537143491735</v>
+      </c>
+      <c r="L46">
+        <v>-0.03983983384155453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.03857361065806041</v>
+        <v>0.04706934348037971</v>
       </c>
       <c r="C47">
-        <v>-0.005211941425767125</v>
+        <v>-0.01909443474776169</v>
       </c>
       <c r="D47">
-        <v>-0.003596105410581023</v>
+        <v>0.0152241597106237</v>
       </c>
       <c r="E47">
-        <v>0.0141657169513485</v>
+        <v>-0.004294414423832301</v>
       </c>
       <c r="F47">
-        <v>-0.0764410808694852</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03952821932297474</v>
+      </c>
+      <c r="G47">
+        <v>0.007705750193458876</v>
+      </c>
+      <c r="H47">
+        <v>0.03401455125177165</v>
+      </c>
+      <c r="I47">
+        <v>-0.03725956534418837</v>
+      </c>
+      <c r="J47">
+        <v>0.03145147351356509</v>
+      </c>
+      <c r="K47">
+        <v>0.01352830828788312</v>
+      </c>
+      <c r="L47">
+        <v>0.007162035979705757</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.04723166969435036</v>
+        <v>0.0450275422768513</v>
       </c>
       <c r="C48">
-        <v>0.01572309534386481</v>
+        <v>-0.01588009147185959</v>
       </c>
       <c r="D48">
-        <v>-0.02900501211565819</v>
+        <v>0.01596712131068719</v>
       </c>
       <c r="E48">
-        <v>0.02211417967248197</v>
+        <v>-0.007476956607503365</v>
       </c>
       <c r="F48">
-        <v>-0.05419907887703836</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.04345886723120287</v>
+      </c>
+      <c r="G48">
+        <v>0.01996621484817071</v>
+      </c>
+      <c r="H48">
+        <v>-0.004291544049603088</v>
+      </c>
+      <c r="I48">
+        <v>-0.06150085598903291</v>
+      </c>
+      <c r="J48">
+        <v>0.01151006161819343</v>
+      </c>
+      <c r="K48">
+        <v>-0.02859619891445505</v>
+      </c>
+      <c r="L48">
+        <v>0.02429935550928326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.1468951436397301</v>
+        <v>0.2066344413662456</v>
       </c>
       <c r="C49">
-        <v>0.0178039552778583</v>
+        <v>-0.02699046591229867</v>
       </c>
       <c r="D49">
-        <v>-0.1070696961120561</v>
+        <v>-0.1861932154842554</v>
       </c>
       <c r="E49">
-        <v>0.03321426943379249</v>
+        <v>0.02287615959773144</v>
       </c>
       <c r="F49">
-        <v>0.1181080706542474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.02300488441840251</v>
+      </c>
+      <c r="G49">
+        <v>-0.1792548093158597</v>
+      </c>
+      <c r="H49">
+        <v>-0.1715642547029632</v>
+      </c>
+      <c r="I49">
+        <v>0.1259941907826327</v>
+      </c>
+      <c r="J49">
+        <v>-0.1436351728833667</v>
+      </c>
+      <c r="K49">
+        <v>0.1276916954729968</v>
+      </c>
+      <c r="L49">
+        <v>-0.1329436635750104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.06344125431088526</v>
+        <v>0.05203332059627573</v>
       </c>
       <c r="C50">
-        <v>0.01473636825576458</v>
+        <v>-0.03995813897472523</v>
       </c>
       <c r="D50">
-        <v>-0.04208634058689413</v>
+        <v>-0.004236152492924574</v>
       </c>
       <c r="E50">
-        <v>0.002142217519790422</v>
+        <v>0.01308998080430714</v>
       </c>
       <c r="F50">
-        <v>-0.02586499868030028</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03857195490564252</v>
+      </c>
+      <c r="G50">
+        <v>0.02535662126303033</v>
+      </c>
+      <c r="H50">
+        <v>0.05163587306954359</v>
+      </c>
+      <c r="I50">
+        <v>-0.03842496053863675</v>
+      </c>
+      <c r="J50">
+        <v>0.04156491330591307</v>
+      </c>
+      <c r="K50">
+        <v>-0.02780074885817676</v>
+      </c>
+      <c r="L50">
+        <v>0.02696695362233398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.04012149480092137</v>
+        <v>0.04070668315954508</v>
       </c>
       <c r="C51">
-        <v>0.007847850787236836</v>
+        <v>-0.008387045811264038</v>
       </c>
       <c r="D51">
-        <v>0.004873723988875064</v>
+        <v>0.006100338499269811</v>
       </c>
       <c r="E51">
-        <v>0.002202283406162572</v>
+        <v>-0.02166601401971984</v>
       </c>
       <c r="F51">
-        <v>-0.0151434118060296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.02638662669755697</v>
+      </c>
+      <c r="G51">
+        <v>-0.01318346644135946</v>
+      </c>
+      <c r="H51">
+        <v>-0.01076924493017291</v>
+      </c>
+      <c r="I51">
+        <v>0.006647277086285438</v>
+      </c>
+      <c r="J51">
+        <v>-0.03726747344535514</v>
+      </c>
+      <c r="K51">
+        <v>0.06331078519290113</v>
+      </c>
+      <c r="L51">
+        <v>-0.02782604151483456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1472840968796399</v>
+        <v>0.1512242686437659</v>
       </c>
       <c r="C53">
-        <v>-0.03488712500419339</v>
+        <v>-0.02523341810306311</v>
       </c>
       <c r="D53">
-        <v>-0.07414578518256747</v>
+        <v>-0.07274204872585718</v>
       </c>
       <c r="E53">
-        <v>0.007053654642760063</v>
+        <v>0.02418254118780756</v>
       </c>
       <c r="F53">
-        <v>0.07405532227496334</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.0001433669542656248</v>
+      </c>
+      <c r="G53">
+        <v>-0.01214023894308864</v>
+      </c>
+      <c r="H53">
+        <v>0.2415873956960283</v>
+      </c>
+      <c r="I53">
+        <v>0.06573521258707762</v>
+      </c>
+      <c r="J53">
+        <v>0.04037700136276049</v>
+      </c>
+      <c r="K53">
+        <v>0.04527778256376521</v>
+      </c>
+      <c r="L53">
+        <v>-0.03241464782627661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.06234152512757466</v>
+        <v>0.06055768590039919</v>
       </c>
       <c r="C54">
-        <v>0.02332663707011889</v>
+        <v>-0.02167589914609633</v>
       </c>
       <c r="D54">
-        <v>0.002219039259757369</v>
+        <v>0.02208599432299021</v>
       </c>
       <c r="E54">
-        <v>0.04168954777048135</v>
+        <v>-0.0346726188920848</v>
       </c>
       <c r="F54">
-        <v>-0.05758861678422882</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.04895736081993542</v>
+      </c>
+      <c r="G54">
+        <v>0.07950249955950382</v>
+      </c>
+      <c r="H54">
+        <v>0.008084705537635694</v>
+      </c>
+      <c r="I54">
+        <v>-0.1160242780291143</v>
+      </c>
+      <c r="J54">
+        <v>0.02902340060675409</v>
+      </c>
+      <c r="K54">
+        <v>-0.0524532898497516</v>
+      </c>
+      <c r="L54">
+        <v>0.01676989936242349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.09016087203398802</v>
+        <v>0.09201786643083791</v>
       </c>
       <c r="C55">
-        <v>-0.01226681455826838</v>
+        <v>-0.03057121947451957</v>
       </c>
       <c r="D55">
-        <v>-0.05567383026616572</v>
+        <v>-0.05146059997314433</v>
       </c>
       <c r="E55">
-        <v>0.02358298271068714</v>
+        <v>-0.003588564763079844</v>
       </c>
       <c r="F55">
-        <v>0.0008843126178366918</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.0137233593634147</v>
+      </c>
+      <c r="G55">
+        <v>0.03623653704994896</v>
+      </c>
+      <c r="H55">
+        <v>0.1616139986326983</v>
+      </c>
+      <c r="I55">
+        <v>-0.001157878746870178</v>
+      </c>
+      <c r="J55">
+        <v>0.02356405344962722</v>
+      </c>
+      <c r="K55">
+        <v>0.0317991009487809</v>
+      </c>
+      <c r="L55">
+        <v>-0.06189499802211547</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1463292077162475</v>
+        <v>0.1466239613017393</v>
       </c>
       <c r="C56">
-        <v>-0.04414510806574769</v>
+        <v>-0.04177840349745453</v>
       </c>
       <c r="D56">
-        <v>-0.08328568919921667</v>
+        <v>-0.07195566169995338</v>
       </c>
       <c r="E56">
-        <v>0.04846646023287073</v>
+        <v>0.0007210219977828477</v>
       </c>
       <c r="F56">
-        <v>0.07690172670242668</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.01317742264951474</v>
+      </c>
+      <c r="G56">
+        <v>0.01014254640476655</v>
+      </c>
+      <c r="H56">
+        <v>0.2453293615151305</v>
+      </c>
+      <c r="I56">
+        <v>0.08399783466611112</v>
+      </c>
+      <c r="J56">
+        <v>0.02610430458136453</v>
+      </c>
+      <c r="K56">
+        <v>0.02530615571450104</v>
+      </c>
+      <c r="L56">
+        <v>0.01204980691625967</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.1053440478935323</v>
+        <v>0.06800729566946717</v>
       </c>
       <c r="C58">
-        <v>0.07135825599700907</v>
+        <v>-0.04660401756274526</v>
       </c>
       <c r="D58">
-        <v>0.1682046458436335</v>
+        <v>0.1776786977120478</v>
       </c>
       <c r="E58">
-        <v>0.09634179586531309</v>
+        <v>-0.09080718162751497</v>
       </c>
       <c r="F58">
-        <v>-0.2719361748187847</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.07070414763629546</v>
+      </c>
+      <c r="G58">
+        <v>-0.1119907807605631</v>
+      </c>
+      <c r="H58">
+        <v>-0.165915098585493</v>
+      </c>
+      <c r="I58">
+        <v>-0.5000242043160698</v>
+      </c>
+      <c r="J58">
+        <v>0.007501510733304124</v>
+      </c>
+      <c r="K58">
+        <v>0.3434474756756554</v>
+      </c>
+      <c r="L58">
+        <v>0.2077518800611444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1713192024662201</v>
+        <v>0.1977924700219578</v>
       </c>
       <c r="C59">
-        <v>-0.4149321633426493</v>
+        <v>0.3255419318697089</v>
       </c>
       <c r="D59">
-        <v>0.1093992807749116</v>
+        <v>0.03070421133561017</v>
       </c>
       <c r="E59">
-        <v>0.08839691265805158</v>
+        <v>-0.02939136681835725</v>
       </c>
       <c r="F59">
-        <v>-0.03941162861962503</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.04540074053692399</v>
+      </c>
+      <c r="G59">
+        <v>0.03477237367310556</v>
+      </c>
+      <c r="H59">
+        <v>0.05798088970615996</v>
+      </c>
+      <c r="I59">
+        <v>0.04089574022946072</v>
+      </c>
+      <c r="J59">
+        <v>-0.05289616823915324</v>
+      </c>
+      <c r="K59">
+        <v>0.003575759705737221</v>
+      </c>
+      <c r="L59">
+        <v>-0.006540491076623735</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.2223751536876818</v>
+        <v>0.2429499589210391</v>
       </c>
       <c r="C60">
-        <v>-0.01825989487599553</v>
+        <v>-0.06463081063761052</v>
       </c>
       <c r="D60">
-        <v>-0.1067847573633031</v>
+        <v>-0.1431595175630332</v>
       </c>
       <c r="E60">
-        <v>0.06864678289878609</v>
+        <v>-0.009562130913100868</v>
       </c>
       <c r="F60">
-        <v>0.03152107965362537</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.01488982375167206</v>
+      </c>
+      <c r="G60">
+        <v>-0.0470728821852992</v>
+      </c>
+      <c r="H60">
+        <v>-0.07897588518269447</v>
+      </c>
+      <c r="I60">
+        <v>0.1256711751639319</v>
+      </c>
+      <c r="J60">
+        <v>0.09441591752661167</v>
+      </c>
+      <c r="K60">
+        <v>0.1357132489693727</v>
+      </c>
+      <c r="L60">
+        <v>-0.0252745566451076</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.0769284625503657</v>
+        <v>0.08456460309549613</v>
       </c>
       <c r="C61">
-        <v>0.0276765318943869</v>
+        <v>-0.04450628141555499</v>
       </c>
       <c r="D61">
-        <v>-0.0455991584439245</v>
+        <v>-0.02274284564503276</v>
       </c>
       <c r="E61">
-        <v>0.01169038864149994</v>
+        <v>-0.02032412299033603</v>
       </c>
       <c r="F61">
-        <v>-0.002292005865811526</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03227980062018004</v>
+      </c>
+      <c r="G61">
+        <v>0.0780991037530205</v>
+      </c>
+      <c r="H61">
+        <v>0.05133779830460698</v>
+      </c>
+      <c r="I61">
+        <v>-0.05043256858223768</v>
+      </c>
+      <c r="J61">
+        <v>-0.08246524350347374</v>
+      </c>
+      <c r="K61">
+        <v>0.0002359352251768979</v>
+      </c>
+      <c r="L61">
+        <v>0.0178186238579261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.1521462038402219</v>
+        <v>0.1483487659151396</v>
       </c>
       <c r="C62">
-        <v>-0.01246285855951041</v>
+        <v>-0.05020523903672987</v>
       </c>
       <c r="D62">
-        <v>-0.06008313809040489</v>
+        <v>-0.06535973368307507</v>
       </c>
       <c r="E62">
-        <v>-0.008286222621118307</v>
+        <v>0.04220426581186319</v>
       </c>
       <c r="F62">
-        <v>0.1146156870373975</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.0142225761703915</v>
+      </c>
+      <c r="G62">
+        <v>0.02662589991961033</v>
+      </c>
+      <c r="H62">
+        <v>0.2159785013387178</v>
+      </c>
+      <c r="I62">
+        <v>0.06209247995576843</v>
+      </c>
+      <c r="J62">
+        <v>0.07435167426970306</v>
+      </c>
+      <c r="K62">
+        <v>0.007960959838124032</v>
+      </c>
+      <c r="L62">
+        <v>-0.05628056383179481</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.06068521327612975</v>
+        <v>0.05090582547181974</v>
       </c>
       <c r="C63">
-        <v>0.03862417583946712</v>
+        <v>-0.02982829896648966</v>
       </c>
       <c r="D63">
-        <v>-0.02903766392681123</v>
+        <v>0.001934154249348615</v>
       </c>
       <c r="E63">
-        <v>0.01464284182067855</v>
+        <v>0.003984718057405119</v>
       </c>
       <c r="F63">
-        <v>-0.004425781555659663</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02715401859961486</v>
+      </c>
+      <c r="G63">
+        <v>0.05428177290056963</v>
+      </c>
+      <c r="H63">
+        <v>0.01153917653200975</v>
+      </c>
+      <c r="I63">
+        <v>-0.0562987780593828</v>
+      </c>
+      <c r="J63">
+        <v>0.03387325498515432</v>
+      </c>
+      <c r="K63">
+        <v>-0.02680053583341137</v>
+      </c>
+      <c r="L63">
+        <v>0.0116670938560039</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.09766608077192816</v>
+        <v>0.1026134084877953</v>
       </c>
       <c r="C64">
-        <v>-0.01166948122913276</v>
+        <v>-0.02474909233417937</v>
       </c>
       <c r="D64">
-        <v>-0.06282525592239468</v>
+        <v>-0.03923573982272149</v>
       </c>
       <c r="E64">
-        <v>0.03813102426456854</v>
+        <v>-0.03079289610160256</v>
       </c>
       <c r="F64">
-        <v>-0.05161892327958038</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.07757684397678126</v>
+      </c>
+      <c r="G64">
+        <v>0.05308773473311939</v>
+      </c>
+      <c r="H64">
+        <v>-0.0171645553782068</v>
+      </c>
+      <c r="I64">
+        <v>-0.02526447433908776</v>
+      </c>
+      <c r="J64">
+        <v>-0.03571808102317181</v>
+      </c>
+      <c r="K64">
+        <v>-0.01600706607457907</v>
+      </c>
+      <c r="L64">
+        <v>0.04852305548436792</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1113786952842936</v>
+        <v>0.1273062484283775</v>
       </c>
       <c r="C65">
-        <v>0.02062528874590806</v>
+        <v>-0.02109002136090252</v>
       </c>
       <c r="D65">
-        <v>-0.04318320552389598</v>
+        <v>-0.05672644941608068</v>
       </c>
       <c r="E65">
-        <v>0.0447745788916851</v>
+        <v>0.01148232073599543</v>
       </c>
       <c r="F65">
-        <v>-0.09314024278536166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.05742068788520079</v>
+      </c>
+      <c r="G65">
+        <v>0.07071795215118198</v>
+      </c>
+      <c r="H65">
+        <v>-0.1904363962955356</v>
+      </c>
+      <c r="I65">
+        <v>-0.1240141721512356</v>
+      </c>
+      <c r="J65">
+        <v>0.6627016876529772</v>
+      </c>
+      <c r="K65">
+        <v>0.07800275948617671</v>
+      </c>
+      <c r="L65">
+        <v>-0.0684999854993928</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.1523024353762553</v>
+        <v>0.1342497678488899</v>
       </c>
       <c r="C66">
-        <v>0.08477612017894748</v>
+        <v>-0.1095023231192728</v>
       </c>
       <c r="D66">
-        <v>-0.09499810276348315</v>
+        <v>-0.02785904867480928</v>
       </c>
       <c r="E66">
-        <v>0.02753142862863379</v>
+        <v>-0.004459817777048828</v>
       </c>
       <c r="F66">
-        <v>0.0295150005558023</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.04525811747474289</v>
+      </c>
+      <c r="G66">
+        <v>0.1032259354297195</v>
+      </c>
+      <c r="H66">
+        <v>0.01532726755175868</v>
+      </c>
+      <c r="I66">
+        <v>-0.08757164539518313</v>
+      </c>
+      <c r="J66">
+        <v>-0.2404216894523979</v>
+      </c>
+      <c r="K66">
+        <v>-0.04502755782412907</v>
+      </c>
+      <c r="L66">
+        <v>0.06452866829041798</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09639029643341421</v>
+        <v>0.09572472924315613</v>
       </c>
       <c r="C67">
-        <v>0.03220888794152204</v>
+        <v>-0.05615745829208586</v>
       </c>
       <c r="D67">
-        <v>0.006180627962072458</v>
+        <v>0.008202151756965584</v>
       </c>
       <c r="E67">
-        <v>0.008858684724766218</v>
+        <v>-0.04408380549331204</v>
       </c>
       <c r="F67">
-        <v>-0.01388033932941278</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01985371863186767</v>
+      </c>
+      <c r="G67">
+        <v>0.009483123129500264</v>
+      </c>
+      <c r="H67">
+        <v>0.008221282777775549</v>
+      </c>
+      <c r="I67">
+        <v>0.1355882464168131</v>
+      </c>
+      <c r="J67">
+        <v>-0.06733181305658292</v>
+      </c>
+      <c r="K67">
+        <v>-0.07990542597720932</v>
+      </c>
+      <c r="L67">
+        <v>-0.02094624599859875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.06253276108221596</v>
+        <v>0.09785812735627587</v>
       </c>
       <c r="C68">
-        <v>-0.2526238008745564</v>
+        <v>0.2745281830571784</v>
       </c>
       <c r="D68">
-        <v>0.07561387069114739</v>
+        <v>0.04735468241212703</v>
       </c>
       <c r="E68">
-        <v>0.03692550487252114</v>
+        <v>-0.02270940222045527</v>
       </c>
       <c r="F68">
-        <v>-0.04533323997902701</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01689700032158061</v>
+      </c>
+      <c r="G68">
+        <v>-0.007310757899139104</v>
+      </c>
+      <c r="H68">
+        <v>0.0267456791084407</v>
+      </c>
+      <c r="I68">
+        <v>-0.0248840802311179</v>
+      </c>
+      <c r="J68">
+        <v>0.06480340819639885</v>
+      </c>
+      <c r="K68">
+        <v>-0.004597304428117004</v>
+      </c>
+      <c r="L68">
+        <v>0.03290013025581487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.06564330534011532</v>
+        <v>0.05520502197317156</v>
       </c>
       <c r="C69">
-        <v>0.01985693602857562</v>
+        <v>-0.0261236369077946</v>
       </c>
       <c r="D69">
-        <v>-0.005388032363023854</v>
+        <v>0.01459960590023316</v>
       </c>
       <c r="E69">
-        <v>0.01600872584229993</v>
+        <v>0.004209884288340366</v>
       </c>
       <c r="F69">
-        <v>-0.01083938895745785</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.00128644734580503</v>
+      </c>
+      <c r="G69">
+        <v>0.02766936215686241</v>
+      </c>
+      <c r="H69">
+        <v>0.04227249852657625</v>
+      </c>
+      <c r="I69">
+        <v>-0.008862903300169962</v>
+      </c>
+      <c r="J69">
+        <v>-0.004459971407411324</v>
+      </c>
+      <c r="K69">
+        <v>0.01141106567327817</v>
+      </c>
+      <c r="L69">
+        <v>0.01149913580997627</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.01870934807302713</v>
+        <v>0.04147892104903853</v>
       </c>
       <c r="C70">
-        <v>-0.00781266512997785</v>
+        <v>-0.01880543320358148</v>
       </c>
       <c r="D70">
-        <v>-0.0001997863226927111</v>
+        <v>-0.02789337420617146</v>
       </c>
       <c r="E70">
-        <v>-0.01328838439280899</v>
+        <v>0.008604419297779792</v>
       </c>
       <c r="F70">
-        <v>-0.002767224330102738</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>-0.04263468095566259</v>
+      </c>
+      <c r="G70">
+        <v>0.01232306746916212</v>
+      </c>
+      <c r="H70">
+        <v>-0.01517945317882972</v>
+      </c>
+      <c r="I70">
+        <v>0.03287574718992488</v>
+      </c>
+      <c r="J70">
+        <v>-0.02128846793110327</v>
+      </c>
+      <c r="K70">
+        <v>-0.1362316189761101</v>
+      </c>
+      <c r="L70">
+        <v>0.03199745216024828</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.06442159077297469</v>
+        <v>0.1098343794619395</v>
       </c>
       <c r="C71">
-        <v>-0.2683443118874512</v>
+        <v>0.287683213395253</v>
       </c>
       <c r="D71">
-        <v>0.07408447848980348</v>
+        <v>0.03091716389865248</v>
       </c>
       <c r="E71">
-        <v>0.06958638685448351</v>
+        <v>-0.04157142742402504</v>
       </c>
       <c r="F71">
-        <v>-0.03013844047762479</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.0202256405124936</v>
+      </c>
+      <c r="G71">
+        <v>0.003420289170990105</v>
+      </c>
+      <c r="H71">
+        <v>0.01354408202333607</v>
+      </c>
+      <c r="I71">
+        <v>-0.01555053659149118</v>
+      </c>
+      <c r="J71">
+        <v>0.01607779113924201</v>
+      </c>
+      <c r="K71">
+        <v>-0.008104146600980792</v>
+      </c>
+      <c r="L71">
+        <v>-0.01020412922731687</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1428937719380794</v>
+        <v>0.1352695080674961</v>
       </c>
       <c r="C72">
-        <v>-0.0468359627041339</v>
+        <v>-0.00943630151358286</v>
       </c>
       <c r="D72">
-        <v>-0.03549427572026662</v>
+        <v>0.01808256116039736</v>
       </c>
       <c r="E72">
-        <v>-0.2409562388956743</v>
+        <v>0.1762382684831061</v>
       </c>
       <c r="F72">
-        <v>-0.004574517732774293</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.007014769199527168</v>
+      </c>
+      <c r="G72">
+        <v>0.1235926044677745</v>
+      </c>
+      <c r="H72">
+        <v>0.01675760126062259</v>
+      </c>
+      <c r="I72">
+        <v>0.04604299583543034</v>
+      </c>
+      <c r="J72">
+        <v>0.1049644530432685</v>
+      </c>
+      <c r="K72">
+        <v>0.1054680429211612</v>
+      </c>
+      <c r="L72">
+        <v>-0.1097985001455971</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2496826414312702</v>
+        <v>0.2405290259778515</v>
       </c>
       <c r="C73">
-        <v>0.05600656529309102</v>
+        <v>-0.1125044629358392</v>
       </c>
       <c r="D73">
-        <v>-0.1532572369388824</v>
+        <v>-0.2397751945043837</v>
       </c>
       <c r="E73">
-        <v>0.1037419198115187</v>
+        <v>-0.03738351189543387</v>
       </c>
       <c r="F73">
-        <v>0.1177141210547133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1444417519728214</v>
+      </c>
+      <c r="G73">
+        <v>-0.2926693655849214</v>
+      </c>
+      <c r="H73">
+        <v>-0.269894576773294</v>
+      </c>
+      <c r="I73">
+        <v>0.1258088770724222</v>
+      </c>
+      <c r="J73">
+        <v>-0.1956018842194803</v>
+      </c>
+      <c r="K73">
+        <v>0.4862164561772134</v>
+      </c>
+      <c r="L73">
+        <v>-0.02331002105209836</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.08196837469561297</v>
+        <v>0.0891727205953254</v>
       </c>
       <c r="C74">
-        <v>-0.02011932192600963</v>
+        <v>-0.04185943849402652</v>
       </c>
       <c r="D74">
-        <v>-0.05504169196964512</v>
+        <v>-0.04608840185030618</v>
       </c>
       <c r="E74">
-        <v>0.00928872016414741</v>
+        <v>0.01634850565387984</v>
       </c>
       <c r="F74">
-        <v>-0.004670038818344429</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.02178924944325137</v>
+      </c>
+      <c r="G74">
+        <v>-0.01402914187785359</v>
+      </c>
+      <c r="H74">
+        <v>0.143810670992879</v>
+      </c>
+      <c r="I74">
+        <v>0.0006410325228482716</v>
+      </c>
+      <c r="J74">
+        <v>-0.01069864531730669</v>
+      </c>
+      <c r="K74">
+        <v>0.06586123208570673</v>
+      </c>
+      <c r="L74">
+        <v>-0.008798468490641248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.117670640687383</v>
+        <v>0.09956882772646158</v>
       </c>
       <c r="C75">
-        <v>-0.001908016213542743</v>
+        <v>-0.0395228306729954</v>
       </c>
       <c r="D75">
-        <v>0.0001625007000709303</v>
+        <v>0.01025035842825819</v>
       </c>
       <c r="E75">
-        <v>0.02187133634788204</v>
+        <v>0.005780219131856572</v>
       </c>
       <c r="F75">
-        <v>0.03452835739258515</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03912512603698705</v>
+      </c>
+      <c r="G75">
+        <v>-0.003510500352946831</v>
+      </c>
+      <c r="H75">
+        <v>0.1364496710134669</v>
+      </c>
+      <c r="I75">
+        <v>0.02543935954310036</v>
+      </c>
+      <c r="J75">
+        <v>0.04310009415414816</v>
+      </c>
+      <c r="K75">
+        <v>0.02408691240990635</v>
+      </c>
+      <c r="L75">
+        <v>0.006145510272844761</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1319879992671644</v>
+        <v>0.1153187785036361</v>
       </c>
       <c r="C76">
-        <v>-0.01378814147899392</v>
+        <v>-0.05652201511915696</v>
       </c>
       <c r="D76">
-        <v>-0.06606133970257742</v>
+        <v>-0.05701549848603107</v>
       </c>
       <c r="E76">
-        <v>0.01681249940639372</v>
+        <v>0.001010184447086434</v>
       </c>
       <c r="F76">
-        <v>0.02508509909302673</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.009756240491452212</v>
+      </c>
+      <c r="G76">
+        <v>-0.004068199426062759</v>
+      </c>
+      <c r="H76">
+        <v>0.2351010368522188</v>
+      </c>
+      <c r="I76">
+        <v>0.04881283402461641</v>
+      </c>
+      <c r="J76">
+        <v>0.03950218708241145</v>
+      </c>
+      <c r="K76">
+        <v>0.0357620337160208</v>
+      </c>
+      <c r="L76">
+        <v>0.001204301663459994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.1271767932892253</v>
+        <v>0.08766860583422521</v>
       </c>
       <c r="C77">
-        <v>0.06370900469693129</v>
+        <v>-0.03435286417036684</v>
       </c>
       <c r="D77">
-        <v>0.1026758994559835</v>
+        <v>0.1438780341181684</v>
       </c>
       <c r="E77">
-        <v>0.007996299502809785</v>
+        <v>-0.1197794600688853</v>
       </c>
       <c r="F77">
-        <v>-0.2369016821111372</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.0593751504490649</v>
+      </c>
+      <c r="G77">
+        <v>0.6542796699419967</v>
+      </c>
+      <c r="H77">
+        <v>-0.3040270625604382</v>
+      </c>
+      <c r="I77">
+        <v>0.4505783048210282</v>
+      </c>
+      <c r="J77">
+        <v>-0.05697452088659702</v>
+      </c>
+      <c r="K77">
+        <v>0.08749153199554716</v>
+      </c>
+      <c r="L77">
+        <v>0.0793002194112097</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.1245125925552777</v>
+        <v>0.1602829768099849</v>
       </c>
       <c r="C78">
-        <v>0.06738802249256574</v>
+        <v>-0.08344599200504843</v>
       </c>
       <c r="D78">
-        <v>-0.05610815736360193</v>
+        <v>0.03171333037901027</v>
       </c>
       <c r="E78">
-        <v>0.02612901280037785</v>
+        <v>-0.08904460857144368</v>
       </c>
       <c r="F78">
-        <v>-0.09469582277871472</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.1567906531948474</v>
+      </c>
+      <c r="G78">
+        <v>0.01394031436728024</v>
+      </c>
+      <c r="H78">
+        <v>-0.1141619205423043</v>
+      </c>
+      <c r="I78">
+        <v>-0.08839885017213257</v>
+      </c>
+      <c r="J78">
+        <v>-0.05450252095606447</v>
+      </c>
+      <c r="K78">
+        <v>-0.09957766463780088</v>
+      </c>
+      <c r="L78">
+        <v>-0.4802955277978156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1378881518728061</v>
+        <v>0.1370140860410756</v>
       </c>
       <c r="C79">
-        <v>0.007160954837067096</v>
+        <v>-0.05203799182307927</v>
       </c>
       <c r="D79">
-        <v>-0.06789185728692376</v>
+        <v>-0.04681524102923715</v>
       </c>
       <c r="E79">
-        <v>0.00662600115323499</v>
+        <v>0.006552723997018919</v>
       </c>
       <c r="F79">
-        <v>0.07851749613235862</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.01248181304645062</v>
+      </c>
+      <c r="G79">
+        <v>0.03411503881673768</v>
+      </c>
+      <c r="H79">
+        <v>0.1869769100727215</v>
+      </c>
+      <c r="I79">
+        <v>0.06647364824712511</v>
+      </c>
+      <c r="J79">
+        <v>0.05743205315192371</v>
+      </c>
+      <c r="K79">
+        <v>0.02024014191269037</v>
+      </c>
+      <c r="L79">
+        <v>-0.02594173327873263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.03905977581618499</v>
+        <v>0.04392410268077696</v>
       </c>
       <c r="C80">
-        <v>0.02133001077731807</v>
+        <v>-0.01659249350109566</v>
       </c>
       <c r="D80">
-        <v>-0.02117407074523191</v>
+        <v>-0.05835879778260018</v>
       </c>
       <c r="E80">
-        <v>0.006349751824466145</v>
+        <v>0.01081452622201213</v>
       </c>
       <c r="F80">
-        <v>-0.0152668384306742</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02151920255049926</v>
+      </c>
+      <c r="G80">
+        <v>0.01392174401329983</v>
+      </c>
+      <c r="H80">
+        <v>-0.02389711364379016</v>
+      </c>
+      <c r="I80">
+        <v>-0.09171768373576449</v>
+      </c>
+      <c r="J80">
+        <v>-0.03490842719027884</v>
+      </c>
+      <c r="K80">
+        <v>-0.01827089845863424</v>
+      </c>
+      <c r="L80">
+        <v>-0.01952719804933574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1355165107081884</v>
+        <v>0.1320758854689247</v>
       </c>
       <c r="C81">
-        <v>0.006660224215180149</v>
+        <v>-0.04025923903569432</v>
       </c>
       <c r="D81">
-        <v>-0.07144725942056698</v>
+        <v>-0.0383441418633811</v>
       </c>
       <c r="E81">
-        <v>0.02930037672052516</v>
+        <v>0.004789466983098666</v>
       </c>
       <c r="F81">
-        <v>0.04061538832307095</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.02174365018646941</v>
+      </c>
+      <c r="G81">
+        <v>0.02446091913800146</v>
+      </c>
+      <c r="H81">
+        <v>0.1674677411435403</v>
+      </c>
+      <c r="I81">
+        <v>0.01897114490157201</v>
+      </c>
+      <c r="J81">
+        <v>-0.02207556729214075</v>
+      </c>
+      <c r="K81">
+        <v>0.01196957774868251</v>
+      </c>
+      <c r="L81">
+        <v>0.07218607066235422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.115000887836775</v>
+        <v>0.1191035533926643</v>
       </c>
       <c r="C82">
-        <v>0.01643773852359877</v>
+        <v>-0.04204079500452011</v>
       </c>
       <c r="D82">
-        <v>-0.03498078348208369</v>
+        <v>-0.04231987137978469</v>
       </c>
       <c r="E82">
-        <v>0.03341420778847778</v>
+        <v>0.01364409111294099</v>
       </c>
       <c r="F82">
-        <v>0.0946664255152135</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.01680753684210116</v>
+      </c>
+      <c r="G82">
+        <v>-0.005120628482875815</v>
+      </c>
+      <c r="H82">
+        <v>0.2706528850357456</v>
+      </c>
+      <c r="I82">
+        <v>0.03519806115420444</v>
+      </c>
+      <c r="J82">
+        <v>-0.0298464431125583</v>
+      </c>
+      <c r="K82">
+        <v>-0.01396249109247802</v>
+      </c>
+      <c r="L82">
+        <v>-0.002109090541227037</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.05652918753553365</v>
+        <v>0.07625899216568428</v>
       </c>
       <c r="C83">
-        <v>0.03293849753793843</v>
+        <v>-0.04376655133544384</v>
       </c>
       <c r="D83">
-        <v>0.06309741863604805</v>
+        <v>0.01180243448922756</v>
       </c>
       <c r="E83">
-        <v>0.01280979323497651</v>
+        <v>-0.02296554277085317</v>
       </c>
       <c r="F83">
-        <v>0.06174340980894331</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.07726765659529367</v>
+      </c>
+      <c r="G83">
+        <v>-0.03271374659912374</v>
+      </c>
+      <c r="H83">
+        <v>-0.04853547539587093</v>
+      </c>
+      <c r="I83">
+        <v>-0.084137363573458</v>
+      </c>
+      <c r="J83">
+        <v>-0.02961374128280964</v>
+      </c>
+      <c r="K83">
+        <v>-0.06928672358296092</v>
+      </c>
+      <c r="L83">
+        <v>-0.02656740694285874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.04971412221688463</v>
+        <v>0.0387296655614493</v>
       </c>
       <c r="C84">
-        <v>0.005269219307339294</v>
+        <v>0.02064543464288109</v>
       </c>
       <c r="D84">
-        <v>-0.05187775302725533</v>
+        <v>0.01437770362015313</v>
       </c>
       <c r="E84">
-        <v>-0.01801324592406812</v>
+        <v>0.02865097845645759</v>
       </c>
       <c r="F84">
-        <v>-0.003594071148070368</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.05635103797733309</v>
+      </c>
+      <c r="G84">
+        <v>-0.1106372512976344</v>
+      </c>
+      <c r="H84">
+        <v>-0.1536539310817436</v>
+      </c>
+      <c r="I84">
+        <v>-0.139378093595561</v>
+      </c>
+      <c r="J84">
+        <v>-0.1364534212246266</v>
+      </c>
+      <c r="K84">
+        <v>-0.2570455940969005</v>
+      </c>
+      <c r="L84">
+        <v>-0.3589457354416903</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.1025583170894473</v>
+        <v>0.1153570479785999</v>
       </c>
       <c r="C85">
-        <v>0.02783481072085154</v>
+        <v>-0.0424679865946915</v>
       </c>
       <c r="D85">
-        <v>-0.03302143759213164</v>
+        <v>-0.03936674600042264</v>
       </c>
       <c r="E85">
-        <v>0.05794415217316766</v>
+        <v>-0.03588542830035506</v>
       </c>
       <c r="F85">
-        <v>0.02000274819038917</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.00428679091301052</v>
+      </c>
+      <c r="G85">
+        <v>0.02302949208435615</v>
+      </c>
+      <c r="H85">
+        <v>0.1924778739769764</v>
+      </c>
+      <c r="I85">
+        <v>0.03958015581749989</v>
+      </c>
+      <c r="J85">
+        <v>0.05210797861237784</v>
+      </c>
+      <c r="K85">
+        <v>0.02186646646172921</v>
+      </c>
+      <c r="L85">
+        <v>-0.02200296175711814</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.06580690049776405</v>
+        <v>0.0705189539287058</v>
       </c>
       <c r="C86">
-        <v>0.07181960227933257</v>
+        <v>-0.02507187499433249</v>
       </c>
       <c r="D86">
-        <v>-0.03070733127061769</v>
+        <v>0.01817296766075509</v>
       </c>
       <c r="E86">
-        <v>0.002315772500774997</v>
+        <v>-0.02966099352532262</v>
       </c>
       <c r="F86">
-        <v>-0.02156918126275437</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03614426934623596</v>
+      </c>
+      <c r="G86">
+        <v>-0.03422272981770593</v>
+      </c>
+      <c r="H86">
+        <v>-0.09597479870829548</v>
+      </c>
+      <c r="I86">
+        <v>-0.02705066035065375</v>
+      </c>
+      <c r="J86">
+        <v>-0.1059050479584644</v>
+      </c>
+      <c r="K86">
+        <v>-0.2305363365252861</v>
+      </c>
+      <c r="L86">
+        <v>-0.3772697665496272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.1086695673565285</v>
+        <v>0.1178640301914427</v>
       </c>
       <c r="C87">
-        <v>0.05245783294109203</v>
+        <v>-0.06183923742793011</v>
       </c>
       <c r="D87">
-        <v>-0.04149549548635</v>
+        <v>0.009164224893255515</v>
       </c>
       <c r="E87">
-        <v>0.02922744199714888</v>
+        <v>-0.02619260433631141</v>
       </c>
       <c r="F87">
-        <v>-0.1572392667079272</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.08014928654942279</v>
+      </c>
+      <c r="G87">
+        <v>0.1820740623140573</v>
+      </c>
+      <c r="H87">
+        <v>-0.1429667212684725</v>
+      </c>
+      <c r="I87">
+        <v>0.07936817699685011</v>
+      </c>
+      <c r="J87">
+        <v>-0.04699936574820936</v>
+      </c>
+      <c r="K87">
+        <v>-0.02135795498062394</v>
+      </c>
+      <c r="L87">
+        <v>0.0278228543365293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.05867189174514509</v>
+        <v>0.06413068032361055</v>
       </c>
       <c r="C88">
-        <v>0.02442533233837354</v>
+        <v>-0.045645240686691</v>
       </c>
       <c r="D88">
-        <v>-0.0349404971004021</v>
+        <v>-0.03882866530490747</v>
       </c>
       <c r="E88">
-        <v>0.01384670695161594</v>
+        <v>-0.006088430861976257</v>
       </c>
       <c r="F88">
-        <v>-0.01192574607455725</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01259477402195983</v>
+      </c>
+      <c r="G88">
+        <v>0.02703944329329352</v>
+      </c>
+      <c r="H88">
+        <v>0.01644118954777362</v>
+      </c>
+      <c r="I88">
+        <v>-0.04806390146864623</v>
+      </c>
+      <c r="J88">
+        <v>-0.03376628379193752</v>
+      </c>
+      <c r="K88">
+        <v>-0.02388858333134838</v>
+      </c>
+      <c r="L88">
+        <v>0.01680213227301265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.1019428176441724</v>
+        <v>0.1792085617380663</v>
       </c>
       <c r="C89">
-        <v>-0.3169303662577451</v>
+        <v>0.3745777338428606</v>
       </c>
       <c r="D89">
-        <v>0.1034970555790057</v>
+        <v>0.01986579050869431</v>
       </c>
       <c r="E89">
-        <v>0.1070659194911829</v>
+        <v>-0.09515865432056822</v>
       </c>
       <c r="F89">
-        <v>-0.06418306274179598</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.001937107135109603</v>
+      </c>
+      <c r="G89">
+        <v>-0.01942461041896373</v>
+      </c>
+      <c r="H89">
+        <v>-0.005601660776625928</v>
+      </c>
+      <c r="I89">
+        <v>-0.06982251987013731</v>
+      </c>
+      <c r="J89">
+        <v>-0.08247617983287267</v>
+      </c>
+      <c r="K89">
+        <v>0.04121038814399184</v>
+      </c>
+      <c r="L89">
+        <v>0.05374598859725581</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.08837984757278328</v>
+        <v>0.1237886235878377</v>
       </c>
       <c r="C90">
-        <v>-0.2686773360336785</v>
+        <v>0.2752461674646482</v>
       </c>
       <c r="D90">
-        <v>0.09884309553236459</v>
+        <v>0.03790372734536142</v>
       </c>
       <c r="E90">
-        <v>0.04803785031092156</v>
+        <v>-0.03630600169303859</v>
       </c>
       <c r="F90">
-        <v>-0.05698967442740854</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01502353015442672</v>
+      </c>
+      <c r="G90">
+        <v>0.02229674460143014</v>
+      </c>
+      <c r="H90">
+        <v>-0.0375208584788649</v>
+      </c>
+      <c r="I90">
+        <v>-0.03107901442318963</v>
+      </c>
+      <c r="J90">
+        <v>-0.04150102651665036</v>
+      </c>
+      <c r="K90">
+        <v>0.02056243156729196</v>
+      </c>
+      <c r="L90">
+        <v>0.02243733506196561</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.09755608854775316</v>
+        <v>0.0841971702860187</v>
       </c>
       <c r="C91">
-        <v>0.00938381982543296</v>
+        <v>-0.04646479034526501</v>
       </c>
       <c r="D91">
-        <v>-0.02990940941431052</v>
+        <v>-0.005800311458026168</v>
       </c>
       <c r="E91">
-        <v>0.009410723682025125</v>
+        <v>0.001646037826131139</v>
       </c>
       <c r="F91">
-        <v>0.001496922729215318</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.006432772576607606</v>
+      </c>
+      <c r="G91">
+        <v>-0.01978123057832069</v>
+      </c>
+      <c r="H91">
+        <v>0.09815323872795907</v>
+      </c>
+      <c r="I91">
+        <v>0.01879982549483061</v>
+      </c>
+      <c r="J91">
+        <v>0.02850601835231438</v>
+      </c>
+      <c r="K91">
+        <v>0.04501103133913303</v>
+      </c>
+      <c r="L91">
+        <v>0.02373188032258921</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.07407902972638369</v>
+        <v>0.1278122094605711</v>
       </c>
       <c r="C92">
-        <v>-0.3312154404358141</v>
+        <v>0.3254788704857164</v>
       </c>
       <c r="D92">
-        <v>0.07509764276319923</v>
+        <v>0.02533317811142163</v>
       </c>
       <c r="E92">
-        <v>0.08512105945775428</v>
+        <v>-0.04745870730779712</v>
       </c>
       <c r="F92">
-        <v>-0.02454518068236633</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.02574052059449131</v>
+      </c>
+      <c r="G92">
+        <v>-0.01172283193568941</v>
+      </c>
+      <c r="H92">
+        <v>0.04003360461219163</v>
+      </c>
+      <c r="I92">
+        <v>-0.02663332931892285</v>
+      </c>
+      <c r="J92">
+        <v>-0.02082215593046648</v>
+      </c>
+      <c r="K92">
+        <v>-0.003807035908835939</v>
+      </c>
+      <c r="L92">
+        <v>-0.003714403906934802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.07502585132076774</v>
+        <v>0.130536378046295</v>
       </c>
       <c r="C93">
-        <v>-0.2751633669104814</v>
+        <v>0.3064094532180783</v>
       </c>
       <c r="D93">
-        <v>0.0627816306366764</v>
+        <v>0.01125908157161401</v>
       </c>
       <c r="E93">
-        <v>0.04744136039328289</v>
+        <v>-0.02114785279473872</v>
       </c>
       <c r="F93">
-        <v>-0.04168574276024671</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.003489891960956146</v>
+      </c>
+      <c r="G93">
+        <v>-0.003117532409298381</v>
+      </c>
+      <c r="H93">
+        <v>-0.01355282914167543</v>
+      </c>
+      <c r="I93">
+        <v>0.00362715717473772</v>
+      </c>
+      <c r="J93">
+        <v>0.001506048094791587</v>
+      </c>
+      <c r="K93">
+        <v>-0.03963112899433056</v>
+      </c>
+      <c r="L93">
+        <v>0.005548737379996518</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.1145679987687172</v>
+        <v>0.1140977100328364</v>
       </c>
       <c r="C94">
-        <v>0.0490298031275035</v>
+        <v>-0.06812294917990908</v>
       </c>
       <c r="D94">
-        <v>-0.03773336078334822</v>
+        <v>-0.01236391877917288</v>
       </c>
       <c r="E94">
-        <v>0.0317701666160955</v>
+        <v>-0.02410324557315117</v>
       </c>
       <c r="F94">
-        <v>0.01329592388064223</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.002751733707486912</v>
+      </c>
+      <c r="G94">
+        <v>-0.04340077086572792</v>
+      </c>
+      <c r="H94">
+        <v>0.1326623850317416</v>
+      </c>
+      <c r="I94">
+        <v>0.000748294002862808</v>
+      </c>
+      <c r="J94">
+        <v>0.02874690579824881</v>
+      </c>
+      <c r="K94">
+        <v>0.03708836469871044</v>
+      </c>
+      <c r="L94">
+        <v>0.009984773556471998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1182215936603246</v>
+        <v>0.1363019541437888</v>
       </c>
       <c r="C95">
-        <v>0.08515074939172262</v>
+        <v>-0.06401381646591418</v>
       </c>
       <c r="D95">
-        <v>-0.1013707355556955</v>
+        <v>-0.03275019336727236</v>
       </c>
       <c r="E95">
-        <v>0.08190535153310406</v>
+        <v>-0.05732501373302405</v>
       </c>
       <c r="F95">
-        <v>0.01484936049975092</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.08398519297636467</v>
+      </c>
+      <c r="G95">
+        <v>0.01719055527692825</v>
+      </c>
+      <c r="H95">
+        <v>-0.1742827462789292</v>
+      </c>
+      <c r="I95">
+        <v>-0.07298674893265956</v>
+      </c>
+      <c r="J95">
+        <v>-0.03723103578827179</v>
+      </c>
+      <c r="K95">
+        <v>-0.01807775891893555</v>
+      </c>
+      <c r="L95">
+        <v>-0.07818715668712145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2615054146426771</v>
+        <v>0.1869369252851994</v>
       </c>
       <c r="C97">
-        <v>-0.142182448164804</v>
+        <v>0.01443342144472088</v>
       </c>
       <c r="D97">
-        <v>-0.06236999468413702</v>
+        <v>0.2941250377399083</v>
       </c>
       <c r="E97">
-        <v>-0.8839488470613333</v>
+        <v>0.8914177448345824</v>
       </c>
       <c r="F97">
-        <v>-0.01125727078586747</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.02655873318686221</v>
+      </c>
+      <c r="G97">
+        <v>0.0367395174592687</v>
+      </c>
+      <c r="H97">
+        <v>-0.07281804459601465</v>
+      </c>
+      <c r="I97">
+        <v>-0.040858729819289</v>
+      </c>
+      <c r="J97">
+        <v>-0.07188971600065194</v>
+      </c>
+      <c r="K97">
+        <v>0.04557783566474969</v>
+      </c>
+      <c r="L97">
+        <v>0.01014435097810444</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.2918885407779521</v>
+        <v>0.2800006936453471</v>
       </c>
       <c r="C98">
-        <v>0.07669254857474934</v>
+        <v>-0.1156435969110316</v>
       </c>
       <c r="D98">
-        <v>-0.03296462719178057</v>
+        <v>-0.1335571878015188</v>
       </c>
       <c r="E98">
-        <v>0.1065750552819606</v>
+        <v>0.04486159889884712</v>
       </c>
       <c r="F98">
-        <v>0.4622993603059261</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2566029522336229</v>
+      </c>
+      <c r="G98">
+        <v>-0.3221023026495178</v>
+      </c>
+      <c r="H98">
+        <v>-0.2269283132162125</v>
+      </c>
+      <c r="I98">
+        <v>0.1812335854182778</v>
+      </c>
+      <c r="J98">
+        <v>0.08977935373062301</v>
+      </c>
+      <c r="K98">
+        <v>-0.5272225030171266</v>
+      </c>
+      <c r="L98">
+        <v>0.3606984494230216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.2794683300005257</v>
+        <v>0.1590112939468278</v>
       </c>
       <c r="C99">
-        <v>0.2852981990573384</v>
+        <v>-0.1384375860652144</v>
       </c>
       <c r="D99">
-        <v>0.8396199747655215</v>
+        <v>0.5313291011225063</v>
       </c>
       <c r="E99">
-        <v>-0.03623798080653406</v>
+        <v>-0.1883065572226562</v>
       </c>
       <c r="F99">
-        <v>0.1874488412969239</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.6918872362842415</v>
+      </c>
+      <c r="G99">
+        <v>0.01472430548171165</v>
+      </c>
+      <c r="H99">
+        <v>0.1059577981611316</v>
+      </c>
+      <c r="I99">
+        <v>-0.08743593269427398</v>
+      </c>
+      <c r="J99">
+        <v>0.04130292886470592</v>
+      </c>
+      <c r="K99">
+        <v>-0.003846466958392218</v>
+      </c>
+      <c r="L99">
+        <v>-0.1558284708892183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.05138294978983991</v>
+        <v>0.04905535504750481</v>
       </c>
       <c r="C101">
-        <v>-0.001570197064197692</v>
+        <v>-0.01633869635335924</v>
       </c>
       <c r="D101">
-        <v>-0.02426882766872283</v>
+        <v>-0.01020457022287322</v>
       </c>
       <c r="E101">
-        <v>0.01532977392089477</v>
+        <v>-0.01900420760140798</v>
       </c>
       <c r="F101">
-        <v>-0.03047995769090074</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03417585652359952</v>
+      </c>
+      <c r="G101">
+        <v>0.03916589098188576</v>
+      </c>
+      <c r="H101">
+        <v>0.04466367377420054</v>
+      </c>
+      <c r="I101">
+        <v>-0.04654932383194588</v>
+      </c>
+      <c r="J101">
+        <v>0.008683681383644361</v>
+      </c>
+      <c r="K101">
+        <v>-0.04028887318983249</v>
+      </c>
+      <c r="L101">
+        <v>-0.00718337992537572</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
